--- a/uploads/Data Match ASBH - CAR_modifie.xlsx
+++ b/uploads/Data Match ASBH - CAR_modifie.xlsx
@@ -623,21 +623,13 @@
       <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>manquant</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>BEZIERS</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>manquant</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>3 ème journée</t>
